--- a/APP_PERSONAS/src/test/resources/datadriven/eprepago/inactivacion_eprepago.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/eprepago/inactivacion_eprepago.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D683012-D22D-43E3-AD71-CF023D560E42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -52,9 +53,6 @@
     <t>validarClave</t>
   </si>
   <si>
-    <t>opcionAutenticacion</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -83,15 +81,12 @@
   </si>
   <si>
     <t>ACTIVO</t>
-  </si>
-  <si>
-    <t>CONSULTAR_PRODUCTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -116,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,12 +127,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,10 +162,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,6 +259,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -305,6 +311,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,28 +503,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75">
+    <row r="1" spans="1:13" ht="15.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,50 +561,46 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4">
+        <v>700101</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5">
-        <v>700101</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="M2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/eprepago/inactivacion_eprepago.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/eprepago/inactivacion_eprepago.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D683012-D22D-43E3-AD71-CF023D560E42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628C7C28-3713-4313-8464-5DBA903CC741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -56,9 +56,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>pruebasregistro49</t>
-  </si>
-  <si>
     <t>1234</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>pruebauser01</t>
   </si>
 </sst>
 </file>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -506,25 +506,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3"/>
   <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.5">
+    <row r="1" spans="1:13" ht="16.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,31 +574,31 @@
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="M2" s="4"/>
     </row>
